--- a/single_product.xlsx
+++ b/single_product.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,35 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="00000000"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -42,15 +61,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="-9133618967391181621" xfId="1" hidden="0"/>
+    <cellStyle name="720566008312118358" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,14 +470,217 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Descrizione</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p_sku</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sottocategoria</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Cod.</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>p_image</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>p_normalPrice</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>p_offerPrice</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cod. fornitore</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Produttore</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Motosega Husqvarna 120 Mark II</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>MP_125561863</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>https://www.husqvarna.com/it/motoseghe/120-mark-ii/</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Motoseghe</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Motoseghe a scoppio</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>967861903</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Velocità catena alla potenza max 16,8 m/s
+Cilindrata 38,2 cm³
+Lunghezza barra raccomandata, min 35 cm
+Lunghezza barra raccomandata, max 45 cm
+Potenza resa 1,4 kW
+Peso (gruppo di taglio escl.) 4,85 kg
+Livello di pressione acustica all'orecchio dell'operatore 100,7 dB(A)
+Livello di potenza acustica, garantito (LWA) 113 dB(A)
+Livello di vibrazioni equivalente (ahv, eq) impugnatura anteriore 2,1 m/s²
+Livello di vibrazioni equivalente (ahv, eq) impugnatura posteriore 2,7 m/s²
+Passo 3/8" mini
+Tipo catena H37
+Lunghezza barra 14 poll.
+Tipo barra (lungo) A rocchetto
+Ramponi Incluso
+Generic Chainsaw SubGroups Occasional use chainsaws
+Fonte di alimentazione generica Petrol
+Motosega a scoppio per tutti gli usi facile da usare per i privati. Grazie alle prestazioni di taglio sufficienti, rende facile il taglio della legna da ardere, l'abbattimento o la limatura leggera. Dispone della tecnologia del motore X-Torq® per basse emissioni e Air Injection che mantiene il filtro pulito. L'apparato di taglio accuratamente studiato a basso contraccolpo ne aumenta la sicurezza.</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>'%PROFILE%\Documents\Images\'967861903_Motosega_Husqvarna_120_Mark_II.jpg</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>0042</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Husqvarna</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Trattorino tagliaerba Zero Turn Husqvarna Z242F</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>MP_125563070</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>https://www.husqvarna.com/it/trattorini-rasaerba-zero-turn/z242f/</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Trattorini Rasaerba Zero Turn</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>967665703</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Larghezza di taglio 107 cm
+Nome motore Endurance Series
+Potenza resa 13,95 kW
+Cilindrata 724 cm³
+Volume serbatoio carburante 13,25 l
+Velocità avanzamento, min 0 km/h
+Velocità avanzamento, max 8 km/h
+Tipo piatto di taglio ClearCut™ - Scatolato
+Altezza di taglio, min 38,1 mm
+Altezza di taglio, max 102 mm
+Tipo sedile Comfort schienale alto
+Peso 263,09 kg
+Fonte di alimentazione generica Petrol
+Trattorino tagliaerba Zero Turn (a raggio zero) ad alta specifica per uso residenziale, pratico e compatto con gruppo di taglio ClearCut™, comandi erognomici e potente motore bicilindrico.</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>'%PROFILE%\Documents\Images\'967665703_Trattorino_tagliaerba_Zero_Turn_Husqvarna_Z242F.jpg</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>5989</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>0042</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Husqvarna</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/single_product.xlsx
+++ b/single_product.xlsx
@@ -106,8 +106,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-9133618967391181621" xfId="1" hidden="0"/>
-    <cellStyle name="720566008312118358" xfId="2" hidden="0"/>
+    <cellStyle name="-4731372636664127021" xfId="1" hidden="0"/>
+    <cellStyle name="-5782148298437530311" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -516,17 +516,17 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>p_image</t>
+          <t>Immagine</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>p_normalPrice</t>
+          <t>Listino 1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>p_offerPrice</t>
+          <t>Listino 2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -595,14 +595,14 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>'%PROFILE%\Documents\Images\'967861903_Motosega_Husqvarna_120_Mark_II.jpg</t>
+          <t>C:\Users\fabio\Pictures\HVA\967861903-Motosega_Husqvarna_120_Mark_II.jpg</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>296</v>
+        <v>242.62</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>199</v>
+        <v>163.11</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -662,11 +662,11 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>'%PROFILE%\Documents\Images\'967665703_Trattorino_tagliaerba_Zero_Turn_Husqvarna_Z242F.jpg</t>
+          <t>C:\Users\fabio\Pictures\HVA\967665703-Trattorino_tagliaerba_Zero_Turn_Husqvarna_Z242F.jpg</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>5989</v>
+        <v>4909.02</v>
       </c>
       <c r="J3" s="2" t="inlineStr"/>
       <c r="K3" s="2" t="inlineStr">

--- a/single_product.xlsx
+++ b/single_product.xlsx
@@ -106,8 +106,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-4731372636664127021" xfId="1" hidden="0"/>
-    <cellStyle name="-5782148298437530311" xfId="2" hidden="0"/>
+    <cellStyle name="1084645758174096976" xfId="1" hidden="0"/>
+    <cellStyle name="7585101212277098759" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,12 +521,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Listino 1</t>
+          <t>Listino 4</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Listino 2</t>
+          <t>Listino 5</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -543,66 +543,62 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Motosega Husqvarna 120 Mark II</t>
+          <t>Soffiatore Husqvarna 525iB Mark II</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>MP_125561863</t>
+          <t>MP_125562402</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>https://www.husqvarna.com/it/motoseghe/120-mark-ii/</t>
+          <t>https://www.husqvarna.com/it/soffiatori/525ib-mark-ii/</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Motoseghe</t>
+          <t>Soffiatori</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Motoseghe a scoppio</t>
+          <t>Soffiatori a batteria</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>967861903</t>
+          <t>967915503</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Velocità catena alla potenza max 16,8 m/s
-Cilindrata 38,2 cm³
-Lunghezza barra raccomandata, min 35 cm
-Lunghezza barra raccomandata, max 45 cm
-Potenza resa 1,4 kW
-Peso (gruppo di taglio escl.) 4,85 kg
-Livello di pressione acustica all'orecchio dell'operatore 100,7 dB(A)
-Livello di potenza acustica, garantito (LWA) 113 dB(A)
-Livello di vibrazioni equivalente (ahv, eq) impugnatura anteriore 2,1 m/s²
-Livello di vibrazioni equivalente (ahv, eq) impugnatura posteriore 2,7 m/s²
-Passo 3/8" mini
-Tipo catena H37
-Lunghezza barra 14 poll.
-Tipo barra (lungo) A rocchetto
-Ramponi Incluso
-Generic Chainsaw SubGroups Occasional use chainsaws
-Fonte di alimentazione generica Petrol
-Motosega a scoppio per tutti gli usi facile da usare per i privati. Grazie alle prestazioni di taglio sufficienti, rende facile il taglio della legna da ardere, l'abbattimento o la limatura leggera. Dispone della tecnologia del motore X-Torq® per basse emissioni e Air Injection che mantiene il filtro pulito. L'apparato di taglio accuratamente studiato a basso contraccolpo ne aumenta la sicurezza.</t>
+          <t>Tensione batteria 36 V
+Batteria - Nome modello --
+Caricabatterie - Nome modello --
+Numero di batterie incluse --
+Flusso aria nel carter ventola 12,8 m³/min
+Flusso aria al beccuccio 11,33 m³/min
+Velocità aria (beccuccio rotondo) 48 m/s
+Forza di soffiaggio 11 N
+Blowing Force, boost mode 17 N
+Air flow in pipe, boost mode 13,33 m³/min
+Peso senza batteria 2,5 kg
+Fonte di alimentazione generica Battery
+HUS Usage Professional use
+Husqvarna 525iB Mark II è un soffiatore a batteria potente e altamente efficiente. Dotato di un efficiente motore brushless che consente un minor consumo di energia e quindi una maggiore autonomia. Il design leggero, compatto e ben bilanciato lo rende più che adatto per un uso professionale a tempo pieno e il basso livello di rumorosità consente di lavorare nelle aree sensibili al rumore. Un semplice tocco sulla tastiera avvia la macchina istantaneamente in ogni momento. La funzione boost può essere facilmente attivata con un clic sul pulsante e fornisce una potenza di soffiaggio extra quando necessario. Facile da usare con il sistema di batterie Husqvarna 36V altamente flessibile.</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\fabio\Pictures\HVA\967861903-Motosega_Husqvarna_120_Mark_II.jpg</t>
+          <t>C:\Users\fabio\Pictures\HVA\967915503-Soffiatore_Husqvarna_525iB_Mark_II.jpg</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>242.62</v>
+        <v>453.3</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>163.11</v>
+        <v>351.6</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -610,71 +606,6 @@
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Husqvarna</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Trattorino tagliaerba Zero Turn Husqvarna Z242F</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>MP_125563070</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>https://www.husqvarna.com/it/trattorini-rasaerba-zero-turn/z242f/</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Trattorini Rasaerba Zero Turn</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>967665703</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>Larghezza di taglio 107 cm
-Nome motore Endurance Series
-Potenza resa 13,95 kW
-Cilindrata 724 cm³
-Volume serbatoio carburante 13,25 l
-Velocità avanzamento, min 0 km/h
-Velocità avanzamento, max 8 km/h
-Tipo piatto di taglio ClearCut™ - Scatolato
-Altezza di taglio, min 38,1 mm
-Altezza di taglio, max 102 mm
-Tipo sedile Comfort schienale alto
-Peso 263,09 kg
-Fonte di alimentazione generica Petrol
-Trattorino tagliaerba Zero Turn (a raggio zero) ad alta specifica per uso residenziale, pratico e compatto con gruppo di taglio ClearCut™, comandi erognomici e potente motore bicilindrico.</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>C:\Users\fabio\Pictures\HVA\967665703-Trattorino_tagliaerba_Zero_Turn_Husqvarna_Z242F.jpg</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>4909.02</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>0042</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>Husqvarna</t>
         </is>
